--- a/documentatie/notulen/vergaderingen/notule_vergadering2.xlsx
+++ b/documentatie/notulen/vergaderingen/notule_vergadering2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="30" windowWidth="20100" windowHeight="9270"/>
   </bookViews>
   <sheets>
-    <sheet name="8-9-2017" sheetId="1" r:id="rId1"/>
+    <sheet name="18-9-2017" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -527,6 +527,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -539,8 +541,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -934,10 +934,10 @@
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="22"/>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
@@ -957,10 +957,10 @@
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="22"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
@@ -980,10 +980,10 @@
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="22"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
@@ -1270,55 +1270,55 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
@@ -43352,18 +43352,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43416,6 +43416,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91946DA-1D0C-4852-AC5F-029A4620CB68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -43425,14 +43433,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
